--- a/Cantidad_audios.xlsx
+++ b/Cantidad_audios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JULIETH LOPEZ\Documents\Diplomado_IA_AP\Clasificador_sarcasmo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85ECFB5D-02D1-4AC9-8427-7AA90C3FDF8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482BF92F-7717-4359-9E64-F3F082C9E432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3975" yWindow="3045" windowWidth="15375" windowHeight="7875" xr2:uid="{F465D103-FEC2-4BB9-9909-6AF23551EAA1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F465D103-FEC2-4BB9-9909-6AF23551EAA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Cuantos" sheetId="2" r:id="rId1"/>
@@ -425,7 +425,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>34</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -460,7 +460,7 @@
       </c>
       <c r="B4" s="2">
         <f>SUM(B2:B3)</f>
-        <v>124</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
